--- a/Test_Sets/Project_Sets/src/main/resources/studentPreferences60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/studentPreferences60.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weron\Desktop\SEP_Project\cthulhu\Test_Sets\Project_Sets\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B52D5690-1FCA-42FF-A12F-550D241C72D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D60FBFA8-E7C3-447E-AF18-17C2E62C7753}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{23363BF4-A21D-4363-B638-3BFC9F0E42BB}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{51231F8A-8C1F-42E3-A4B3-CF5882A56BEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,7 +378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1454EF49-6A8D-4227-AA01-7655926C3259}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D999D1B-0F00-464F-99F5-2531CD9988E4}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
